--- a/01 - Intro/hw-01.xlsx
+++ b/01 - Intro/hw-01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\LM7204\01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\business-forecasting\01 - Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="solution" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1197,6 +1198,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>125182</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>48106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="200025"/>
+          <a:ext cx="9726382" cy="3448531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1694,4 +1738,19 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>